--- a/output_Q2/DF_Partial_Result.xlsx
+++ b/output_Q2/DF_Partial_Result.xlsx
@@ -28,100 +28,100 @@
     <t>rank_test_score</t>
   </si>
   <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
   <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
     <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
 </sst>
 </file>
@@ -501,16 +501,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9149999618530273</v>
+        <v>0.9139906565348307</v>
       </c>
       <c r="D2">
-        <v>0.003000020980834961</v>
+        <v>0.003887575425954086</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -518,16 +518,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.9129999279975891</v>
+        <v>0.908005436261495</v>
       </c>
       <c r="D3">
-        <v>0.0009999871253967285</v>
+        <v>0.002555320589502078</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -535,16 +535,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.910999983549118</v>
+        <v>0.9079903761545817</v>
       </c>
       <c r="D4">
-        <v>0.005000025033950806</v>
+        <v>0.003902322145350392</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -552,16 +552,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.9089999496936798</v>
+        <v>0.9059550960858663</v>
       </c>
       <c r="D5">
-        <v>0.002999991178512573</v>
+        <v>0.008008144880462644</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -569,16 +569,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.906000018119812</v>
+        <v>0.9039650162061056</v>
       </c>
       <c r="D6">
-        <v>0.01200002431869507</v>
+        <v>0.008827908395781417</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -586,16 +586,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.9019999504089355</v>
+        <v>0.9029247562090555</v>
       </c>
       <c r="D7">
-        <v>0.001999974250793457</v>
+        <v>0.01091472741616778</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -603,16 +603,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.9010000228881836</v>
+        <v>0.901025136311849</v>
       </c>
       <c r="D8">
-        <v>0.004999935626983643</v>
+        <v>0.008132732355088356</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -620,16 +620,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.9009999930858612</v>
+        <v>0.8989747961362203</v>
       </c>
       <c r="D9">
-        <v>0.009000033140182495</v>
+        <v>0.006036515920283998</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -637,16 +637,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.9000000357627869</v>
+        <v>0.8989446957906088</v>
       </c>
       <c r="D10">
-        <v>0.0140000581741333</v>
+        <v>0.01070936497005477</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -654,16 +654,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.8999999165534973</v>
+        <v>0.8978591958681742</v>
       </c>
       <c r="D11">
-        <v>0.009999930858612061</v>
+        <v>0.02273429654968474</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -671,16 +671,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.8979999721050262</v>
+        <v>0.8928840359052023</v>
       </c>
       <c r="D12">
-        <v>2.980232238769531e-08</v>
+        <v>0.01795231191475042</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -688,33 +688,33 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.8979999721050262</v>
+        <v>0.8908035357793173</v>
       </c>
       <c r="D13">
-        <v>0.003999978303909302</v>
+        <v>0.02872724500098014</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.8969999551773071</v>
+        <v>0.8900799155235291</v>
       </c>
       <c r="D14">
-        <v>0.01499998569488525</v>
+        <v>0.01283822570121066</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -722,16 +722,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.8960000276565552</v>
+        <v>0.8879541754722595</v>
       </c>
       <c r="D15">
-        <v>0.006000041961669922</v>
+        <v>0.008110013959894309</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -739,16 +739,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.8920000195503235</v>
+        <v>0.8859640757242838</v>
       </c>
       <c r="D16">
-        <v>0.008000075817108154</v>
+        <v>0.01547915948105867</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -756,16 +756,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.8880000114440918</v>
+        <v>0.8799789150555929</v>
       </c>
       <c r="D17">
-        <v>0.01600003242492676</v>
+        <v>0.004719762923320736</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -773,16 +773,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.8879999816417694</v>
+        <v>0.8790742953618368</v>
       </c>
       <c r="D18">
-        <v>0.01000002026557922</v>
+        <v>0.01079003853631027</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -790,16 +790,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0.8870000541210175</v>
+        <v>0.8711744546890259</v>
       </c>
       <c r="D19">
-        <v>0.003000050783157349</v>
+        <v>0.04822146359487307</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -807,16 +807,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.8849999904632568</v>
+        <v>0.8711141347885132</v>
       </c>
       <c r="D20">
-        <v>0.009000003337860107</v>
+        <v>0.01771889732193794</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -824,16 +824,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.8839999735355377</v>
+        <v>0.8690034747123718</v>
       </c>
       <c r="D21">
-        <v>0.01199999451637268</v>
+        <v>0.002486157563074196</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -841,16 +841,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.8809999525547028</v>
+        <v>0.8680687546730042</v>
       </c>
       <c r="D22">
-        <v>0.01899996399879456</v>
+        <v>0.01858779946813298</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -858,16 +858,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.8730000257492065</v>
+        <v>0.8640886346499125</v>
       </c>
       <c r="D23">
-        <v>0.006999969482421875</v>
+        <v>0.02421498586370427</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -875,16 +875,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24">
-        <v>0.8700000047683716</v>
+        <v>0.8638022343317667</v>
       </c>
       <c r="D24">
-        <v>0.01399999856948853</v>
+        <v>0.02962320974625736</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -892,16 +892,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25">
-        <v>0.8679999709129333</v>
+        <v>0.8631237943967184</v>
       </c>
       <c r="D25">
-        <v>0.009999990463256836</v>
+        <v>0.02806388880921575</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -909,16 +909,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26">
-        <v>0.8670000731945038</v>
+        <v>0.8610884745915731</v>
       </c>
       <c r="D26">
-        <v>0.01499995589256287</v>
+        <v>0.03979730990531141</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -926,16 +926,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0.8589999973773956</v>
+        <v>0.8599427342414856</v>
       </c>
       <c r="D27">
-        <v>0.039000004529953</v>
+        <v>0.01267626852784687</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -943,16 +943,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.8549999594688416</v>
+        <v>0.8581185340881348</v>
       </c>
       <c r="D28">
-        <v>0.01100003719329834</v>
+        <v>0.02146008484331551</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -960,16 +960,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29">
-        <v>0.851999968290329</v>
+        <v>0.8408111333847046</v>
       </c>
       <c r="D29">
-        <v>0.01400002837181091</v>
+        <v>0.05346210040609972</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -977,16 +977,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30">
-        <v>0.8389999866485596</v>
+        <v>0.8141263524691263</v>
       </c>
       <c r="D30">
-        <v>0.0130000114440918</v>
+        <v>0.08834974926229308</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -994,16 +994,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31">
-        <v>0.8379999995231628</v>
+        <v>0.8067993521690369</v>
       </c>
       <c r="D31">
-        <v>0.02799999713897705</v>
+        <v>0.02879368857426483</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1017,10 +1017,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.8239999711513519</v>
+        <v>0.8039047122001648</v>
       </c>
       <c r="D32">
-        <v>0.04399999976158142</v>
+        <v>0.01900706778250232</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1028,16 +1028,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.8010000288486481</v>
+        <v>0.7999396920204163</v>
       </c>
       <c r="D33">
-        <v>0.01899996399879456</v>
+        <v>0.008528330502482386</v>
       </c>
       <c r="E33">
         <v>32</v>

--- a/output_Q2/DF_Partial_Result.xlsx
+++ b/output_Q2/DF_Partial_Result.xlsx
@@ -28,100 +28,100 @@
     <t>rank_test_score</t>
   </si>
   <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
     <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
   </si>
 </sst>
 </file>
@@ -501,16 +501,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9139906565348307</v>
+        <v>0.9340000152587891</v>
       </c>
       <c r="D2">
-        <v>0.003887575425954086</v>
+        <v>0.001999974250793457</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -518,16 +518,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.908005436261495</v>
+        <v>0.9305000007152557</v>
       </c>
       <c r="D3">
-        <v>0.002555320589502078</v>
+        <v>0.0004999935626983643</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -535,33 +535,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.9079903761545817</v>
+        <v>0.9305000007152557</v>
       </c>
       <c r="D4">
-        <v>0.003902322145350392</v>
+        <v>0.0004999935626983643</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.9059550960858663</v>
+        <v>0.9294999837875366</v>
       </c>
       <c r="D5">
-        <v>0.008008144880462644</v>
+        <v>0.005499958992004395</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -569,16 +569,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.9039650162061056</v>
+        <v>0.9289999902248383</v>
       </c>
       <c r="D6">
-        <v>0.008827908395781417</v>
+        <v>0.002999991178512573</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -586,16 +586,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.9029247562090555</v>
+        <v>0.9284999668598175</v>
       </c>
       <c r="D7">
-        <v>0.01091472741616778</v>
+        <v>0.001499980688095093</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -609,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.901025136311849</v>
+        <v>0.9280000329017639</v>
       </c>
       <c r="D8">
-        <v>0.008132732355088356</v>
+        <v>0.0009999871253967285</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -620,33 +620,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.8989747961362203</v>
+        <v>0.9280000329017639</v>
       </c>
       <c r="D9">
-        <v>0.006036515920283998</v>
+        <v>0.002999961376190186</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.8989446957906088</v>
+        <v>0.9259999990463257</v>
       </c>
       <c r="D10">
-        <v>0.01070936497005477</v>
+        <v>0.0009999871253967285</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -654,16 +654,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.8978591958681742</v>
+        <v>0.925000011920929</v>
       </c>
       <c r="D11">
-        <v>0.02273429654968474</v>
+        <v>0.004000008106231689</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -671,16 +671,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.8928840359052023</v>
+        <v>0.9234999120235443</v>
       </c>
       <c r="D12">
-        <v>0.01795231191475042</v>
+        <v>0.001499921083450317</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -688,16 +688,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.8908035357793173</v>
+        <v>0.9230000078678131</v>
       </c>
       <c r="D13">
-        <v>0.02872724500098014</v>
+        <v>0.00899997353553772</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -705,16 +705,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.8900799155235291</v>
+        <v>0.9219999611377716</v>
       </c>
       <c r="D14">
-        <v>0.01283822570121066</v>
+        <v>0.001000076532363892</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -722,16 +722,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.8879541754722595</v>
+        <v>0.9214999675750732</v>
       </c>
       <c r="D15">
-        <v>0.008110013959894309</v>
+        <v>0.002500057220458984</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -739,16 +739,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.8859640757242838</v>
+        <v>0.9199999868869781</v>
       </c>
       <c r="D16">
-        <v>0.01547915948105867</v>
+        <v>0.01300004124641418</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -756,16 +756,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.8799789150555929</v>
+        <v>0.9160000085830688</v>
       </c>
       <c r="D17">
-        <v>0.004719762923320736</v>
+        <v>0.0009999871253967285</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -773,16 +773,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.8790742953618368</v>
+        <v>0.9154999852180481</v>
       </c>
       <c r="D18">
-        <v>0.01079003853631027</v>
+        <v>0.01649999618530273</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -790,16 +790,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0.8711744546890259</v>
+        <v>0.913500040769577</v>
       </c>
       <c r="D19">
-        <v>0.04822146359487307</v>
+        <v>0.002499967813491821</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -807,16 +807,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.8711141347885132</v>
+        <v>0.9129999876022339</v>
       </c>
       <c r="D20">
-        <v>0.01771889732193794</v>
+        <v>0.008000016212463379</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -824,16 +824,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.8690034747123718</v>
+        <v>0.9124999642372131</v>
       </c>
       <c r="D21">
-        <v>0.002486157563074196</v>
+        <v>0.004500031471252441</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -841,16 +841,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.8680687546730042</v>
+        <v>0.9104999303817749</v>
       </c>
       <c r="D22">
-        <v>0.01858779946813298</v>
+        <v>0.003499984741210938</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -858,16 +858,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.8640886346499125</v>
+        <v>0.899499922990799</v>
       </c>
       <c r="D23">
-        <v>0.02421498586370427</v>
+        <v>0.005499988794326782</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -875,16 +875,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24">
-        <v>0.8638022343317667</v>
+        <v>0.8974999189376831</v>
       </c>
       <c r="D24">
-        <v>0.02962320974625736</v>
+        <v>0.01550000905990601</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -892,16 +892,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25">
-        <v>0.8631237943967184</v>
+        <v>0.8930000364780426</v>
       </c>
       <c r="D25">
-        <v>0.02806388880921575</v>
+        <v>0.04399999976158142</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -915,10 +915,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>0.8610884745915731</v>
+        <v>0.8839999735355377</v>
       </c>
       <c r="D26">
-        <v>0.03979730990531141</v>
+        <v>0.002000004053115845</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -926,16 +926,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0.8599427342414856</v>
+        <v>0.8824999928474426</v>
       </c>
       <c r="D27">
-        <v>0.01267626852784687</v>
+        <v>0.01150000095367432</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -943,16 +943,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.8581185340881348</v>
+        <v>0.8750000596046448</v>
       </c>
       <c r="D28">
-        <v>0.02146008484331551</v>
+        <v>0.02100002765655518</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -960,16 +960,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29">
-        <v>0.8408111333847046</v>
+        <v>0.8715000152587891</v>
       </c>
       <c r="D29">
-        <v>0.05346210040609972</v>
+        <v>0.02049994468688965</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -977,16 +977,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30">
-        <v>0.8141263524691263</v>
+        <v>0.8660000860691071</v>
       </c>
       <c r="D30">
-        <v>0.08834974926229308</v>
+        <v>0.02800002694129944</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -994,16 +994,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31">
-        <v>0.8067993521690369</v>
+        <v>0.8644999265670776</v>
       </c>
       <c r="D31">
-        <v>0.02879368857426483</v>
+        <v>0.02350002527236938</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.8039047122001648</v>
+        <v>0.8514999747276306</v>
       </c>
       <c r="D32">
-        <v>0.01900706778250232</v>
+        <v>0.01650005578994751</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1028,16 +1028,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.7999396920204163</v>
+        <v>0.8474999964237213</v>
       </c>
       <c r="D33">
-        <v>0.008528330502482386</v>
+        <v>0.02150002121925354</v>
       </c>
       <c r="E33">
         <v>32</v>

--- a/output_Q2/DF_Partial_Result.xlsx
+++ b/output_Q2/DF_Partial_Result.xlsx
@@ -28,76 +28,88 @@
     <t>rank_test_score</t>
   </si>
   <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 10, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
@@ -109,19 +121,7 @@
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
   </si>
   <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 25, 'epochs': 5, 'hidUnit': 128, 'outActivation': 'softmax'}</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -510,7 +510,7 @@
         <v>0.9340000152587891</v>
       </c>
       <c r="D2">
-        <v>0.001999974250793457</v>
+        <v>0.0009999871253967285</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -518,16 +518,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.9305000007152557</v>
+        <v>0.9329999685287476</v>
       </c>
       <c r="D3">
-        <v>0.0004999935626983643</v>
+        <v>0.0009999871253967285</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -535,24 +535,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.9305000007152557</v>
+        <v>0.9300000369548798</v>
       </c>
       <c r="D4">
-        <v>0.0004999935626983643</v>
+        <v>0.00600007176399231</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -561,7 +561,7 @@
         <v>0.9294999837875366</v>
       </c>
       <c r="D5">
-        <v>0.005499958992004395</v>
+        <v>0.0004999637603759766</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -569,16 +569,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.9289999902248383</v>
+        <v>0.9284999966621399</v>
       </c>
       <c r="D6">
-        <v>0.002999991178512573</v>
+        <v>0.003499984741210938</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -586,16 +586,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.9284999668598175</v>
+        <v>0.9280000627040863</v>
       </c>
       <c r="D7">
-        <v>0.001499980688095093</v>
+        <v>0.001000016927719116</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -609,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.9280000329017639</v>
+        <v>0.9275000393390656</v>
       </c>
       <c r="D8">
-        <v>0.0009999871253967285</v>
+        <v>0.005499929189682007</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -620,33 +620,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.9280000329017639</v>
+        <v>0.9255000054836273</v>
       </c>
       <c r="D9">
-        <v>0.002999961376190186</v>
+        <v>0.008500009775161743</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.9259999990463257</v>
+        <v>0.9254999756813049</v>
       </c>
       <c r="D10">
-        <v>0.0009999871253967285</v>
+        <v>0.004499971866607666</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -654,16 +654,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.925000011920929</v>
+        <v>0.9245000183582306</v>
       </c>
       <c r="D11">
-        <v>0.004000008106231689</v>
+        <v>0.003500014543533325</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -671,33 +671,33 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.9234999120235443</v>
+        <v>0.9245000183582306</v>
       </c>
       <c r="D12">
-        <v>0.001499921083450317</v>
+        <v>0.006499975919723511</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.9230000078678131</v>
+        <v>0.9239999353885651</v>
       </c>
       <c r="D13">
-        <v>0.00899997353553772</v>
+        <v>0.00600007176399231</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -705,16 +705,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.9219999611377716</v>
+        <v>0.92249995470047</v>
       </c>
       <c r="D14">
-        <v>0.001000076532363892</v>
+        <v>0.006500065326690674</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -722,16 +722,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.9214999675750732</v>
+        <v>0.918999969959259</v>
       </c>
       <c r="D15">
-        <v>0.002500057220458984</v>
+        <v>0.01100003719329834</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -739,16 +739,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.9199999868869781</v>
+        <v>0.9174999892711639</v>
       </c>
       <c r="D16">
-        <v>0.01300004124641418</v>
+        <v>0.01250001788139343</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -756,16 +756,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.9160000085830688</v>
+        <v>0.9149999916553497</v>
       </c>
       <c r="D17">
-        <v>0.0009999871253967285</v>
+        <v>0.009000033140182495</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -773,16 +773,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.9154999852180481</v>
+        <v>0.9095000624656677</v>
       </c>
       <c r="D18">
-        <v>0.01649999618530273</v>
+        <v>0.01049995422363281</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -796,10 +796,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0.913500040769577</v>
+        <v>0.9085000157356262</v>
       </c>
       <c r="D19">
-        <v>0.002499967813491821</v>
+        <v>0.002500057220458984</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -807,16 +807,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.9129999876022339</v>
+        <v>0.9075000286102295</v>
       </c>
       <c r="D20">
-        <v>0.008000016212463379</v>
+        <v>0.02150005102157593</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -824,16 +824,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.9124999642372131</v>
+        <v>0.9074999690055847</v>
       </c>
       <c r="D21">
-        <v>0.004500031471252441</v>
+        <v>0.01750004291534424</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -841,16 +841,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.9104999303817749</v>
+        <v>0.9049999117851257</v>
       </c>
       <c r="D22">
-        <v>0.003499984741210938</v>
+        <v>0.005999982357025146</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -858,16 +858,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.899499922990799</v>
+        <v>0.9015000462532043</v>
       </c>
       <c r="D23">
-        <v>0.005499988794326782</v>
+        <v>0.008500039577484131</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -875,16 +875,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24">
-        <v>0.8974999189376831</v>
+        <v>0.8959999978542328</v>
       </c>
       <c r="D24">
-        <v>0.01550000905990601</v>
+        <v>0.003999978303909302</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -898,10 +898,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>0.8930000364780426</v>
+        <v>0.8950000107288361</v>
       </c>
       <c r="D25">
-        <v>0.04399999976158142</v>
+        <v>0.03399994969367981</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -909,16 +909,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26">
-        <v>0.8839999735355377</v>
+        <v>0.8944999575614929</v>
       </c>
       <c r="D26">
-        <v>0.002000004053115845</v>
+        <v>0.007499992847442627</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -926,16 +926,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0.8824999928474426</v>
+        <v>0.8794999718666077</v>
       </c>
       <c r="D27">
-        <v>0.01150000095367432</v>
+        <v>0.003499984741210938</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -943,16 +943,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.8750000596046448</v>
+        <v>0.8790000081062317</v>
       </c>
       <c r="D28">
-        <v>0.02100002765655518</v>
+        <v>0.01899999380111694</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -960,16 +960,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29">
-        <v>0.8715000152587891</v>
+        <v>0.8719999492168427</v>
       </c>
       <c r="D29">
-        <v>0.02049994468688965</v>
+        <v>0.0379999577999115</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -977,16 +977,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30">
-        <v>0.8660000860691071</v>
+        <v>0.8509999513626099</v>
       </c>
       <c r="D30">
-        <v>0.02800002694129944</v>
+        <v>0.00700002908706665</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -994,16 +994,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31">
-        <v>0.8644999265670776</v>
+        <v>0.8479999899864197</v>
       </c>
       <c r="D31">
-        <v>0.02350002527236938</v>
+        <v>0.05999994277954102</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.8514999747276306</v>
+        <v>0.8449999988079071</v>
       </c>
       <c r="D32">
-        <v>0.01650005578994751</v>
+        <v>0.01299998164176941</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1028,16 +1028,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.8474999964237213</v>
+        <v>0.8259999752044678</v>
       </c>
       <c r="D33">
-        <v>0.02150002121925354</v>
+        <v>0.04900002479553223</v>
       </c>
       <c r="E33">
         <v>32</v>
